--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,309 +528,1859 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H2">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I2">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J2">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.1162150954713</v>
+        <v>0.3423605</v>
       </c>
       <c r="N2">
-        <v>1.1162150954713</v>
+        <v>0.684721</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2024379518768077</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1895111415682583</v>
       </c>
       <c r="Q2">
-        <v>3.450699498701414</v>
+        <v>1.0741481944585</v>
       </c>
       <c r="R2">
-        <v>3.450699498701414</v>
+        <v>4.296592777834</v>
       </c>
       <c r="S2">
-        <v>0.3060516921107068</v>
+        <v>0.05583103521182869</v>
       </c>
       <c r="T2">
-        <v>0.3060516921107068</v>
+        <v>0.04062407973606161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.11414876753105</v>
+        <v>3.137477</v>
       </c>
       <c r="H3">
-        <v>2.11414876753105</v>
+        <v>6.274954</v>
       </c>
       <c r="I3">
-        <v>0.2093008924005743</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J3">
-        <v>0.2093008924005743</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.1162150954713</v>
+        <v>0.1032176666666667</v>
       </c>
       <c r="N3">
-        <v>1.1162150954713</v>
+        <v>0.309653</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.06103266304817009</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.08570307252156117</v>
       </c>
       <c r="Q3">
-        <v>2.359844768390202</v>
+        <v>0.3238430551603333</v>
       </c>
       <c r="R3">
-        <v>2.359844768390202</v>
+        <v>1.943058330962</v>
       </c>
       <c r="S3">
-        <v>0.2093008924005743</v>
+        <v>0.0168324008819635</v>
       </c>
       <c r="T3">
-        <v>0.2093008924005743</v>
+        <v>0.01837152382139686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.26925591116813</v>
+        <v>3.137477</v>
       </c>
       <c r="H4">
-        <v>1.26925591116813</v>
+        <v>6.274954</v>
       </c>
       <c r="I4">
-        <v>0.1256564339142667</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J4">
-        <v>0.1256564339142667</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.1162150954713</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N4">
-        <v>1.1162150954713</v>
+        <v>0.039967</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.007877503024502313</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.01106171972972726</v>
       </c>
       <c r="Q4">
-        <v>1.416762608062046</v>
+        <v>0.04179851441966667</v>
       </c>
       <c r="R4">
-        <v>1.416762608062046</v>
+        <v>0.250791086518</v>
       </c>
       <c r="S4">
-        <v>0.1256564339142667</v>
+        <v>0.002172562726824656</v>
       </c>
       <c r="T4">
-        <v>0.1256564339142667</v>
+        <v>0.002371217758490209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.95387430571397</v>
+        <v>3.137477</v>
       </c>
       <c r="H5">
-        <v>1.95387430571397</v>
+        <v>6.274954</v>
       </c>
       <c r="I5">
-        <v>0.1934337082163166</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J5">
-        <v>0.1934337082163166</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.1162150954713</v>
+        <v>0.1141763333333333</v>
       </c>
       <c r="N5">
-        <v>1.1162150954713</v>
+        <v>0.342529</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.06751252867314916</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.0948022067531651</v>
       </c>
       <c r="Q5">
-        <v>2.180943994691439</v>
+        <v>0.3582256197776667</v>
       </c>
       <c r="R5">
-        <v>2.180943994691439</v>
+        <v>2.149353718666</v>
       </c>
       <c r="S5">
-        <v>0.1934337082163166</v>
+        <v>0.01861950454766488</v>
       </c>
       <c r="T5">
-        <v>0.1934337082163166</v>
+        <v>0.02032203687036537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.137477</v>
+      </c>
+      <c r="H6">
+        <v>6.274954</v>
+      </c>
+      <c r="I6">
+        <v>0.2757933218263556</v>
+      </c>
+      <c r="J6">
+        <v>0.2143624876083055</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.1181105</v>
+      </c>
+      <c r="N6">
+        <v>2.236221</v>
+      </c>
+      <c r="O6">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P6">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q6">
+        <v>3.5080459772085</v>
+      </c>
+      <c r="R6">
+        <v>14.032183908834</v>
+      </c>
+      <c r="S6">
+        <v>0.1823378184580738</v>
+      </c>
+      <c r="T6">
+        <v>0.1326736294219915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.309486666666667</v>
+      </c>
+      <c r="H7">
+        <v>6.92846</v>
+      </c>
+      <c r="I7">
+        <v>0.2030105717153233</v>
+      </c>
+      <c r="J7">
+        <v>0.2366873001610275</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.3423605</v>
+      </c>
+      <c r="N7">
+        <v>0.684721</v>
+      </c>
+      <c r="O7">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P7">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q7">
+        <v>0.7906770099433335</v>
+      </c>
+      <c r="R7">
+        <v>4.74406205966</v>
+      </c>
+      <c r="S7">
+        <v>0.04109704434738982</v>
+      </c>
+      <c r="T7">
+        <v>0.04485488044822534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.309486666666667</v>
+      </c>
+      <c r="H8">
+        <v>6.92846</v>
+      </c>
+      <c r="I8">
+        <v>0.2030105717153233</v>
+      </c>
+      <c r="J8">
+        <v>0.2366873001610275</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.309653</v>
+      </c>
+      <c r="O8">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P8">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q8">
+        <v>0.2383798249311111</v>
+      </c>
+      <c r="R8">
+        <v>2.14541842438</v>
+      </c>
+      <c r="S8">
+        <v>0.0123902758187177</v>
+      </c>
+      <c r="T8">
+        <v>0.02028482885063306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.309486666666667</v>
+      </c>
+      <c r="H9">
+        <v>6.92846</v>
+      </c>
+      <c r="I9">
+        <v>0.2030105717153233</v>
+      </c>
+      <c r="J9">
+        <v>0.2366873001610275</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.039967</v>
+      </c>
+      <c r="O9">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P9">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q9">
+        <v>0.03076775120222222</v>
+      </c>
+      <c r="R9">
+        <v>0.27690976082</v>
+      </c>
+      <c r="S9">
+        <v>0.001599216392693403</v>
+      </c>
+      <c r="T9">
+        <v>0.002618168577967117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.309486666666667</v>
+      </c>
+      <c r="H10">
+        <v>6.92846</v>
+      </c>
+      <c r="I10">
+        <v>0.2030105717153233</v>
+      </c>
+      <c r="J10">
+        <v>0.2366873001610275</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.342529</v>
+      </c>
+      <c r="O10">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P10">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q10">
+        <v>0.2636887194822223</v>
+      </c>
+      <c r="R10">
+        <v>2.37319847534</v>
+      </c>
+      <c r="S10">
+        <v>0.01370575704388317</v>
+      </c>
+      <c r="T10">
+        <v>0.02243847836571418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.309486666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.92846</v>
+      </c>
+      <c r="I11">
+        <v>0.2030105717153233</v>
+      </c>
+      <c r="J11">
+        <v>0.2366873001610275</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.1181105</v>
+      </c>
+      <c r="N11">
+        <v>2.236221</v>
+      </c>
+      <c r="O11">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P11">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q11">
+        <v>2.582261291610001</v>
+      </c>
+      <c r="R11">
+        <v>15.49356774966</v>
+      </c>
+      <c r="S11">
+        <v>0.1342182781126392</v>
+      </c>
+      <c r="T11">
+        <v>0.1464909439184879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.5867</v>
+      </c>
+      <c r="H12">
+        <v>1.7601</v>
+      </c>
+      <c r="I12">
+        <v>0.05157263046566488</v>
+      </c>
+      <c r="J12">
+        <v>0.06012783750117986</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.3423605</v>
+      </c>
+      <c r="N12">
+        <v>0.684721</v>
+      </c>
+      <c r="O12">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P12">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q12">
+        <v>0.20086290535</v>
+      </c>
+      <c r="R12">
+        <v>1.2051774321</v>
+      </c>
+      <c r="S12">
+        <v>0.01044025768436865</v>
+      </c>
+      <c r="T12">
+        <v>0.01139489512487933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5867</v>
+      </c>
+      <c r="H13">
+        <v>1.7601</v>
+      </c>
+      <c r="I13">
+        <v>0.05157263046566488</v>
+      </c>
+      <c r="J13">
+        <v>0.06012783750117986</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.309653</v>
+      </c>
+      <c r="O13">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P13">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q13">
+        <v>0.06055780503333332</v>
+      </c>
+      <c r="R13">
+        <v>0.5450202452999999</v>
+      </c>
+      <c r="S13">
+        <v>0.003147614977718716</v>
+      </c>
+      <c r="T13">
+        <v>0.005153140417928263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5867</v>
+      </c>
+      <c r="H14">
+        <v>1.7601</v>
+      </c>
+      <c r="I14">
+        <v>0.05157263046566488</v>
+      </c>
+      <c r="J14">
+        <v>0.06012783750117986</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.039967</v>
+      </c>
+      <c r="O14">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P14">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q14">
+        <v>0.007816212966666666</v>
+      </c>
+      <c r="R14">
+        <v>0.07034591670000001</v>
+      </c>
+      <c r="S14">
+        <v>0.0004062635524748152</v>
+      </c>
+      <c r="T14">
+        <v>0.000665117286392636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.67229437682485</v>
-      </c>
-      <c r="H6">
-        <v>1.67229437682485</v>
-      </c>
-      <c r="I6">
-        <v>0.1655572733581356</v>
-      </c>
-      <c r="J6">
-        <v>0.1655572733581356</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.1162150954713</v>
-      </c>
-      <c r="N6">
-        <v>1.1162150954713</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.866640227483668</v>
-      </c>
-      <c r="R6">
-        <v>1.866640227483668</v>
-      </c>
-      <c r="S6">
-        <v>0.1655572733581356</v>
-      </c>
-      <c r="T6">
-        <v>0.1655572733581356</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5867</v>
+      </c>
+      <c r="H15">
+        <v>1.7601</v>
+      </c>
+      <c r="I15">
+        <v>0.05157263046566488</v>
+      </c>
+      <c r="J15">
+        <v>0.06012783750117986</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.342529</v>
+      </c>
+      <c r="O15">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P15">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q15">
+        <v>0.06698725476666667</v>
+      </c>
+      <c r="R15">
+        <v>0.6028852929</v>
+      </c>
+      <c r="S15">
+        <v>0.003481798693062926</v>
+      </c>
+      <c r="T15">
+        <v>0.005700251682407567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5867</v>
+      </c>
+      <c r="H16">
+        <v>1.7601</v>
+      </c>
+      <c r="I16">
+        <v>0.05157263046566488</v>
+      </c>
+      <c r="J16">
+        <v>0.06012783750117986</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.1181105</v>
+      </c>
+      <c r="N16">
+        <v>2.236221</v>
+      </c>
+      <c r="O16">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P16">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q16">
+        <v>0.65599543035</v>
+      </c>
+      <c r="R16">
+        <v>3.9359725821</v>
+      </c>
+      <c r="S16">
+        <v>0.03409669555803976</v>
+      </c>
+      <c r="T16">
+        <v>0.03721443298957207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.562099</v>
+      </c>
+      <c r="I17">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J17">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.3423605</v>
+      </c>
+      <c r="N17">
+        <v>0.684721</v>
+      </c>
+      <c r="O17">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P17">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q17">
+        <v>0.5206274982298333</v>
+      </c>
+      <c r="R17">
+        <v>3.123764989379</v>
+      </c>
+      <c r="S17">
+        <v>0.02706067220135249</v>
+      </c>
+      <c r="T17">
+        <v>0.02953504894853523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.562099</v>
+      </c>
+      <c r="I18">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J18">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.309653</v>
+      </c>
+      <c r="O18">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P18">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q18">
+        <v>0.1569630712941111</v>
+      </c>
+      <c r="R18">
+        <v>1.412667641647</v>
+      </c>
+      <c r="S18">
+        <v>0.008158474599304343</v>
+      </c>
+      <c r="T18">
+        <v>0.0133567051573718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.562099</v>
+      </c>
+      <c r="I19">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J19">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.039967</v>
+      </c>
+      <c r="O19">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P19">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q19">
+        <v>0.02025926785922222</v>
+      </c>
+      <c r="R19">
+        <v>0.182333410733</v>
+      </c>
+      <c r="S19">
+        <v>0.001053016616375093</v>
+      </c>
+      <c r="T19">
+        <v>0.001723953699866234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.562099</v>
+      </c>
+      <c r="I20">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J20">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.342529</v>
+      </c>
+      <c r="O20">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P20">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q20">
+        <v>0.1736279120412222</v>
+      </c>
+      <c r="R20">
+        <v>1.562651208371</v>
+      </c>
+      <c r="S20">
+        <v>0.009024663562197419</v>
+      </c>
+      <c r="T20">
+        <v>0.01477479262545303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.562099</v>
+      </c>
+      <c r="I21">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J21">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.1181105</v>
+      </c>
+      <c r="N21">
+        <v>2.236221</v>
+      </c>
+      <c r="O21">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P21">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q21">
+        <v>1.7003102646465</v>
+      </c>
+      <c r="R21">
+        <v>10.201861587879</v>
+      </c>
+      <c r="S21">
+        <v>0.08837708125029124</v>
+      </c>
+      <c r="T21">
+        <v>0.09645811461126852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H22">
+        <v>6.310099</v>
+      </c>
+      <c r="I22">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J22">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.3423605</v>
+      </c>
+      <c r="N22">
+        <v>0.684721</v>
+      </c>
+      <c r="O22">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P22">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q22">
+        <v>0.7201095495631666</v>
+      </c>
+      <c r="R22">
+        <v>4.320657297379</v>
+      </c>
+      <c r="S22">
+        <v>0.03742915719213507</v>
+      </c>
+      <c r="T22">
+        <v>0.04085160862030903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H23">
+        <v>6.310099</v>
+      </c>
+      <c r="I23">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J23">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.309653</v>
+      </c>
+      <c r="O23">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P23">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q23">
+        <v>0.2171045650718889</v>
+      </c>
+      <c r="R23">
+        <v>1.953941085647</v>
+      </c>
+      <c r="S23">
+        <v>0.01128445095351849</v>
+      </c>
+      <c r="T23">
+        <v>0.01847441974775792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H24">
+        <v>6.310099</v>
+      </c>
+      <c r="I24">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J24">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.039967</v>
+      </c>
+      <c r="O24">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P24">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q24">
+        <v>0.02802174741477778</v>
+      </c>
+      <c r="R24">
+        <v>0.252195726733</v>
+      </c>
+      <c r="S24">
+        <v>0.001456487265614328</v>
+      </c>
+      <c r="T24">
+        <v>0.002384498564711599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H25">
+        <v>6.310099</v>
+      </c>
+      <c r="I25">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J25">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.342529</v>
+      </c>
+      <c r="O25">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P25">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q25">
+        <v>0.2401546555967778</v>
+      </c>
+      <c r="R25">
+        <v>2.161391900371</v>
+      </c>
+      <c r="S25">
+        <v>0.01248252624924588</v>
+      </c>
+      <c r="T25">
+        <v>0.02043585730407835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H26">
+        <v>6.310099</v>
+      </c>
+      <c r="I26">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J26">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.1181105</v>
+      </c>
+      <c r="N26">
+        <v>2.236221</v>
+      </c>
+      <c r="O26">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P26">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q26">
+        <v>2.3517959826465</v>
+      </c>
+      <c r="R26">
+        <v>14.110775895879</v>
+      </c>
+      <c r="S26">
+        <v>0.1222393753446345</v>
+      </c>
+      <c r="T26">
+        <v>0.1334167129100993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.7184595</v>
+      </c>
+      <c r="H27">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J27">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.3423605</v>
+      </c>
+      <c r="N27">
+        <v>0.684721</v>
+      </c>
+      <c r="O27">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P27">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q27">
+        <v>0.5883326536497501</v>
+      </c>
+      <c r="R27">
+        <v>2.353330614599</v>
+      </c>
+      <c r="S27">
+        <v>0.03057978523973293</v>
+      </c>
+      <c r="T27">
+        <v>0.02225062869024779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.7184595</v>
+      </c>
+      <c r="H28">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J28">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.309653</v>
+      </c>
+      <c r="O28">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P28">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q28">
+        <v>0.1773753798511667</v>
+      </c>
+      <c r="R28">
+        <v>1.064252279107</v>
+      </c>
+      <c r="S28">
+        <v>0.00921944581694736</v>
+      </c>
+      <c r="T28">
+        <v>0.01006245452647326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.7184595</v>
+      </c>
+      <c r="H29">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J29">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.039967</v>
+      </c>
+      <c r="O29">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P29">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q29">
+        <v>0.02289389027883334</v>
+      </c>
+      <c r="R29">
+        <v>0.137363341673</v>
+      </c>
+      <c r="S29">
+        <v>0.001189956470520018</v>
+      </c>
+      <c r="T29">
+        <v>0.001298763842299467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.7184595</v>
+      </c>
+      <c r="H30">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J30">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.342529</v>
+      </c>
+      <c r="O30">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P30">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q30">
+        <v>0.1962074046918334</v>
+      </c>
+      <c r="R30">
+        <v>1.177244428151</v>
+      </c>
+      <c r="S30">
+        <v>0.01019827857709489</v>
+      </c>
+      <c r="T30">
+        <v>0.0111307899051466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.7184595</v>
+      </c>
+      <c r="H31">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J31">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.1181105</v>
+      </c>
+      <c r="N31">
+        <v>2.236221</v>
+      </c>
+      <c r="O31">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P31">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q31">
+        <v>1.92142761077475</v>
+      </c>
+      <c r="R31">
+        <v>7.685710443099001</v>
+      </c>
+      <c r="S31">
+        <v>0.09987010465369225</v>
+      </c>
+      <c r="T31">
+        <v>0.072668025575869</v>
       </c>
     </row>
   </sheetData>
